--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4122076.61397156</v>
+        <v>4120196.43420123</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7470944.133202242</v>
+        <v>7470944.13320224</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>244.0383628746086</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>52.10844059186277</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>64.79445709044279</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612862</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>83.40252578334265</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>337.4550179536795</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1291651532055</v>
+        <v>127.7178027211456</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>206.8064269214862</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578919</v>
+        <v>156.4447884716821</v>
       </c>
       <c r="T19" t="n">
         <v>210.5069097326779</v>
@@ -2062,13 +2062,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.41761368552075</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>35.7208914641478</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>210.5069097326779</v>
@@ -2296,7 +2296,7 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>275.4823470108796</v>
@@ -2305,7 +2305,7 @@
         <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.41761368552078</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>50.76960534990716</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S25" t="n">
         <v>186.8801586578919</v>
@@ -2539,10 +2539,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>70.41761368552054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368552054</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.84698023557728</v>
       </c>
       <c r="S28" t="n">
         <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2776,7 +2776,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S31" t="n">
         <v>186.8801586578919</v>
@@ -3004,19 +3004,19 @@
         <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V31" t="n">
-        <v>241.0969919981167</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108797</v>
+        <v>136.647765052502</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>70.41761368552019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3272,19 +3272,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1936.146930626913</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1936.146930626913</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1577.881232020163</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1192.092979421918</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>781.107074632311</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1936.146930626913</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1936.146930626913</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>675.4941957298054</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>675.4941957298054</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>675.4941957298054</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>675.4941957298054</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>825.7212517577275</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>467.455553150977</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>467.455553150977</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>460.5100524017735</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>446.5866483403644</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>119.3919283763673</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>298.5994341132082</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>291.6539333640048</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2356.285436519557</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,34 +4890,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5027,13 +5027,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5048,16 +5048,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,31 +5215,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765189</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>531.397718270632</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028584</v>
@@ -5258,43 +5258,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>229.0333923118347</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,19 +5464,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336709</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5674,13 +5674,13 @@
         <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937156</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
         <v>540.2879676172992</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5689,34 +5689,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1428.333190197251</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1215.699948043031</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449754</v>
+        <v>937.7234823128633</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953627</v>
+        <v>694.1911671632506</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146763</v>
+        <v>694.1911671632506</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729331</v>
+        <v>477.3537893215074</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>291.0828098815629</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>133.2988000099301</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>133.2988000099301</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5908,13 +5908,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
         <v>822.7849551969364</v>
@@ -5926,34 +5926,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1273.802056521416</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449755</v>
+        <v>995.8255907912486</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953627</v>
+        <v>995.8255907912486</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146763</v>
+        <v>717.5605938105621</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729331</v>
+        <v>500.7232159688189</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>291.0828098815629</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>285.2604416327757</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>120.5300287366501</v>
@@ -6151,10 +6151,10 @@
         <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969363</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
@@ -6163,34 +6163,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449753</v>
+        <v>807.0577537630746</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953624</v>
+        <v>563.5254386134619</v>
       </c>
       <c r="W25" t="n">
-        <v>385.183372014676</v>
+        <v>285.2604416327757</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729328</v>
+        <v>285.2604416327757</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>285.2604416327757</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,25 +6306,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.440640161986</v>
+        <v>735.0407559057238</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441948</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729327</v>
+        <v>371.9193322579837</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729327</v>
+        <v>371.9193322579837</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729327</v>
+        <v>232.9548659019221</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729327</v>
+        <v>232.9548659019221</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6382,7 +6382,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366499</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
         <v>281.6456777937157</v>
@@ -6391,7 +6391,7 @@
         <v>540.2879676172992</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
@@ -6403,31 +6403,31 @@
         <v>1536.594541272926</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057536</v>
+        <v>1530.95723892059</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1342.189401892416</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1342.189401892416</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449752</v>
+        <v>1064.212936162249</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953624</v>
+        <v>820.6806210126358</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146759</v>
+        <v>542.4156240319493</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729327</v>
+        <v>542.4156240319493</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729327</v>
+        <v>542.4156240319493</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6552,13 +6552,13 @@
         <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
         <v>540.2879676172992</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6640,31 +6640,31 @@
         <v>1536.594541272926</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875142</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449747</v>
+        <v>807.0577537630747</v>
       </c>
       <c r="V31" t="n">
-        <v>663.448368995362</v>
+        <v>563.525438613462</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146755</v>
+        <v>425.4973931058842</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729325</v>
+        <v>425.4973931058842</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>425.4973931058842</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6920,40 +6920,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1026.505047571597</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1333.825180851558</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.687808515591</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>1943.227873734288</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2463.528495470036</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,7 +7093,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.193690363625</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010311</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,16 +7582,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,7 +7801,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>253.7371603504735</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>91.23759968302144</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,10 +9252,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>28.12263706263059</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>96.03744927814705</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929765</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814756</v>
+        <v>202.5230052237945</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>20.63789864135492</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.64859338270637</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>148.2747143566559</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>82.39383318338545</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43092547709117</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D19" t="n">
         <v>137.574821692501</v>
@@ -23905,10 +23905,10 @@
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808141</v>
+        <v>98.92370107808144</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>30.43537018620975</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.1263883408627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208578</v>
+        <v>99.67241985670998</v>
       </c>
       <c r="F22" t="n">
         <v>134.3803966972199</v>
@@ -24145,7 +24145,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856059</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.1263883408626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>105.4365644230093</v>
       </c>
       <c r="D25" t="n">
         <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>134.3803966972199</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856059</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.1263883408628</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169932</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
@@ -24619,7 +24619,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856057</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808139</v>
+        <v>44.07672084250413</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y28" t="n">
         <v>207.5440020263834</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.791328856226</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>156.2061697729165</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>137.574821692501</v>
@@ -24853,10 +24853,10 @@
         <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856063</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808144</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>138.8345819583776</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.1263883408632</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632377.7105480878</v>
+        <v>632377.7105480877</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632377.7105480878</v>
+        <v>632377.7105480877</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632377.7105480878</v>
+        <v>632377.7105480877</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632377.7105480878</v>
+        <v>632377.7105480876</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176762</v>
-      </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="G2" t="n">
-        <v>768665.9667554813</v>
+        <v>768665.9667554811</v>
       </c>
       <c r="H2" t="n">
         <v>768665.9667554813</v>
       </c>
       <c r="I2" t="n">
-        <v>768665.9667554814</v>
+        <v>768665.9667554812</v>
       </c>
       <c r="J2" t="n">
         <v>768665.9667554816</v>
       </c>
       <c r="K2" t="n">
-        <v>768665.9667554813</v>
+        <v>768665.9667554811</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.725617677</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="N2" t="n">
+        <v>800515.7256176767</v>
+      </c>
+      <c r="O2" t="n">
         <v>800515.7256176766</v>
       </c>
-      <c r="O2" t="n">
-        <v>800515.7256176767</v>
-      </c>
       <c r="P2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176766</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569126</v>
+        <v>8832.521060569094</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.20055574370781e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>25807.53208971004</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="H4" t="n">
-        <v>25807.53208971001</v>
+        <v>25807.53208971003</v>
       </c>
       <c r="I4" t="n">
         <v>25807.53208971002</v>
       </c>
       <c r="J4" t="n">
-        <v>25807.53208971008</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="K4" t="n">
-        <v>25807.53208971</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819116</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819114</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>92915.50246501785</v>
       </c>
       <c r="H5" t="n">
+        <v>92915.50246501785</v>
+      </c>
+      <c r="I5" t="n">
         <v>92915.50246501787</v>
-      </c>
-      <c r="I5" t="n">
-        <v>92915.50246501785</v>
       </c>
       <c r="J5" t="n">
         <v>92915.50246501785</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680202</v>
+        <v>-37944.09944680208</v>
       </c>
       <c r="C6" t="n">
+        <v>552023.7797677423</v>
+      </c>
+      <c r="D6" t="n">
         <v>552023.7797677425</v>
       </c>
-      <c r="D6" t="n">
-        <v>552023.7797677424</v>
-      </c>
       <c r="E6" t="n">
-        <v>123184.6964760492</v>
+        <v>123087.2373500768</v>
       </c>
       <c r="F6" t="n">
-        <v>648344.7329529453</v>
+        <v>648247.273826973</v>
       </c>
       <c r="G6" t="n">
-        <v>641110.4111401844</v>
+        <v>641028.7450918196</v>
       </c>
       <c r="H6" t="n">
-        <v>649942.9322007535</v>
+        <v>649861.2661523889</v>
       </c>
       <c r="I6" t="n">
-        <v>649942.9322007536</v>
+        <v>649861.2661523888</v>
       </c>
       <c r="J6" t="n">
-        <v>473519.7130081606</v>
+        <v>473438.0469597962</v>
       </c>
       <c r="K6" t="n">
-        <v>649942.9322007534</v>
+        <v>649861.2661523886</v>
       </c>
       <c r="L6" t="n">
-        <v>603701.7128657477</v>
+        <v>603701.7128657475</v>
       </c>
       <c r="M6" t="n">
-        <v>523406.2097356232</v>
+        <v>523406.209735623</v>
       </c>
       <c r="N6" t="n">
         <v>658207.22496946</v>
       </c>
       <c r="O6" t="n">
-        <v>658207.2249694602</v>
+        <v>658207.22496946</v>
       </c>
       <c r="P6" t="n">
-        <v>658207.2249694602</v>
+        <v>658207.22496946</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26747,34 +26747,34 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26823,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>169.7458071461864</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>160.0370983581561</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>87.13685915441846</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438903</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374523</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>11.78595076373352</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272688994</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571135</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33029,7 +33029,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,10 +33038,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>586.9317337484864</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>133.1477786379281</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35972,10 +35972,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>568.8729598603425</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -35984,7 +35984,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127688</v>
       </c>
       <c r="K19" t="n">
         <v>162.7430798556219</v>
@@ -36057,10 +36057,10 @@
         <v>247.2780028463142</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758611</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>235.2160519941552</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
         <v>261.2548382056399</v>
@@ -36291,13 +36291,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36437,7 +36437,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,19 +36446,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K25" t="n">
         <v>162.7430798556219</v>
@@ -36531,10 +36531,10 @@
         <v>247.2780028463142</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341718</v>
+        <v>451.7807101798188</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.3504925046838</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
         <v>284.317529131315</v>
@@ -36768,10 +36768,10 @@
         <v>247.2780028463142</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127688</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K31" t="n">
         <v>162.7430798556219</v>
@@ -37008,7 +37008,7 @@
         <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758611</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>269.8956035973792</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,19 +37391,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>161.6616261677805</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>343.3468637082227</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>298.8501529445951</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
